--- a/El Professor/data/motivationquotes.xlsx
+++ b/El Professor/data/motivationquotes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patrick/Documents/STUDIUM DBM_18/01 Classes/3. Semester/PROG2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patrick/Documents/STUDIUM DBM_18/01 Classes/3. Semester/PROG2/prog2/El Professor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08330421-FD35-AF4F-B970-0469B5CE8C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B772A01-3E33-DC45-8701-C3C6F983E362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15260" yWindow="460" windowWidth="13540" windowHeight="17540" xr2:uid="{45AF6C6F-2A92-6242-81BF-74C356645E94}"/>
   </bookViews>
@@ -33,57 +33,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Who cares if I'm pretty if I fail my finals?</t>
-  </si>
-  <si>
-    <t>Rory, Gilmore Girls</t>
-  </si>
-  <si>
-    <t>Does anybody know how to study?</t>
-  </si>
-  <si>
-    <t>Jeff Winger, Community</t>
-  </si>
-  <si>
-    <t>I can't I have to study.</t>
-  </si>
-  <si>
-    <t>Hermine Granger</t>
-  </si>
-  <si>
-    <t>I checked this out weeks ago for a bit of light reading.</t>
-  </si>
-  <si>
-    <t>Captain Jack Sparrow</t>
-  </si>
-  <si>
-    <t>The problem is not the problem. The problem is your attitude about the problem.</t>
-  </si>
-  <si>
-    <t>WE WERE ON A BREAK!</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>I didn't cheat. I studied for two weeks and I passed.</t>
-  </si>
-  <si>
-    <t>Frank Abagnale</t>
-  </si>
-  <si>
-    <t>In a few years, I hopte to have some more friends and not have time for this kind of stuff.</t>
-  </si>
-  <si>
-    <t>Alex Dunphy</t>
-  </si>
-  <si>
-    <t>Sheldon Cooper</t>
-  </si>
-  <si>
-    <t>Don't you think that if I were wrong, I'd know it?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Who cares if I'm pretty if I fail my finals? - Rory Gilmore</t>
+  </si>
+  <si>
+    <t>Does anybody know how to study? - Jeff Winger</t>
+  </si>
+  <si>
+    <t>I can't I have to study. - Rory Gilmore</t>
+  </si>
+  <si>
+    <t>I checked this out weeks ago for a bit of light reading. - Hermione Granger</t>
+  </si>
+  <si>
+    <t>The problem is not the problem. The problem is your attitude about the problem. - Captain Jack Sparrow</t>
+  </si>
+  <si>
+    <t>WE WERE ON A BREAK! - Ross Geller</t>
+  </si>
+  <si>
+    <t>I didn't cheat. I studied for two weeks and I passed. - Frank Abagnale</t>
+  </si>
+  <si>
+    <t>That's what I do. I drink and I know things. - Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>You know nothing Jon Snow - Ygritte</t>
+  </si>
+  <si>
+    <t>In a few years I hopte to have some more friends and not have time for this kind of stuff. - Alex Dunphy</t>
+  </si>
+  <si>
+    <t>Don't you think that if I were wrong I'd know it? - Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>How you doin'? - Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>PATIENCE YOU MUST HAVE my young padawan. - Yoda</t>
+  </si>
+  <si>
+    <t>All we have to decide is what to do with the time that is given us. - Gandalf</t>
+  </si>
+  <si>
+    <t>The greatest power on Earth is the magnificent power all of us possess … the power of the human brain! - Charles Xavier</t>
+  </si>
+  <si>
+    <t>I'm not great at the advice. Can I interest you in a sarcastic comment? - Chandler Bing</t>
   </si>
 </sst>
 </file>
@@ -435,87 +432,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B60DD5-9443-BD4A-9414-9D31B4A8E3ED}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.83203125" customWidth="1"/>
+    <col min="1" max="1" width="108" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>

--- a/El Professor/data/motivationquotes.xlsx
+++ b/El Professor/data/motivationquotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patrick/Documents/STUDIUM DBM_18/01 Classes/3. Semester/PROG2/prog2/El Professor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B772A01-3E33-DC45-8701-C3C6F983E362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76215AB8-7A9E-FF45-BF48-7D3E742C33FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15260" yWindow="460" windowWidth="13540" windowHeight="17540" xr2:uid="{45AF6C6F-2A92-6242-81BF-74C356645E94}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Who cares if I'm pretty if I fail my finals? - Rory Gilmore</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>I'm not great at the advice. Can I interest you in a sarcastic comment? - Chandler Bing</t>
+  </si>
+  <si>
+    <t>42 - Deep Thought</t>
   </si>
 </sst>
 </file>
@@ -116,8 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B60DD5-9443-BD4A-9414-9D31B4A8E3ED}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,6 +530,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
